--- a/bestellijst.xlsx
+++ b/bestellijst.xlsx
@@ -24,25 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>naam:</t>
   </si>
   <si>
-    <t>kosprijs:</t>
-  </si>
-  <si>
     <t xml:space="preserve">link: </t>
+  </si>
+  <si>
+    <t>sensoren:</t>
+  </si>
+  <si>
+    <t>licht</t>
+  </si>
+  <si>
+    <t>CO²</t>
+  </si>
+  <si>
+    <t>gps tracker</t>
+  </si>
+  <si>
+    <t>kostprijs:</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>12,78 $</t>
+  </si>
+  <si>
+    <t>temperatuur &amp; humidity</t>
+  </si>
+  <si>
+    <t>arduino</t>
+  </si>
+  <si>
+    <t>22,00 $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,13 +103,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,26 +394,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/bestellijst.xlsx
+++ b/bestellijst.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5TICT socquet\OneDrive\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leerling\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>naam:</t>
   </si>
@@ -50,23 +50,30 @@
     <t>link</t>
   </si>
   <si>
-    <t>12,78 $</t>
-  </si>
-  <si>
     <t>temperatuur &amp; humidity</t>
   </si>
   <si>
-    <t>arduino</t>
-  </si>
-  <si>
-    <t>22,00 $</t>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>€ 24,14</t>
+  </si>
+  <si>
+    <t>video ontvanger</t>
+  </si>
+  <si>
+    <t>arduino nano</t>
+  </si>
+  <si>
+    <t>radio modules (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -107,12 +114,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,32 +436,44 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
+      <c r="D9" s="4">
+        <v>2.06</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,8 +483,41 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="D10" s="4">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8.9499999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -471,8 +525,13 @@
     <hyperlink ref="C10" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId9"/>
 </worksheet>
 </file>